--- a/data/output/FV2410_FV2404/UTILMD/55070.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55070.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="300">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="300">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1005,6 +1005,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U169" totalsRowShown="0">
+  <autoFilter ref="A1:U169"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1294,7 +1324,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9480,5 +9513,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55070.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55070.xlsx
@@ -1922,7 +1922,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2636,7 +2636,7 @@
         <v>284</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5124,7 +5124,7 @@
         <v>289</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5328,7 +5328,7 @@
         <v>291</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5532,7 +5532,7 @@
         <v>292</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6298,7 +6298,7 @@
         <v>293</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6664,7 +6664,7 @@
         <v>294</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7716,7 +7716,7 @@
         <v>296</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8320,7 +8320,7 @@
         <v>297</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8520,7 +8520,7 @@
         <v>297</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8720,7 +8720,7 @@
         <v>297</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8920,7 +8920,7 @@
         <v>298</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9286,7 +9286,7 @@
         <v>299</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N167" s="2"/>
